--- a/predicciones.xlsx
+++ b/predicciones.xlsx
@@ -1,141 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DEEP_LEARNING\Project_1\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B715587-91CF-48C4-B1E9-8681F7AFFA09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="34230" yWindow="3465" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
-  <si>
-    <t>Título</t>
-  </si>
-  <si>
-    <t>Etiqueta_Predicha</t>
-  </si>
-  <si>
-    <t>Téngase presente el patrocinio y poder</t>
-  </si>
-  <si>
-    <t>Téngase Presente</t>
-  </si>
-  <si>
-    <t>Pide informe cumplimiento de sentencia.</t>
-  </si>
-  <si>
-    <t>Ica Solicita Diligencia</t>
-  </si>
-  <si>
-    <t>Pide informe cumplimiento de lo resuelto por la sentencia dentro de 05 días hábiles</t>
-  </si>
-  <si>
-    <t>No ha lugar lo solicitado</t>
-  </si>
-  <si>
-    <t>Nhl</t>
-  </si>
-  <si>
-    <t>Concede ampliación de plazo por el término de 05 días// Comunica inhabilidades  Marcelo Matus y José Valenzuela</t>
-  </si>
-  <si>
-    <t>Ica Amplia Plazo</t>
-  </si>
-  <si>
-    <t>Concede Recurso, Interconexión</t>
-  </si>
-  <si>
-    <t>Concede Apelación</t>
-  </si>
-  <si>
-    <t>Concede ampliación de Plazo por el término de 08 días hábiles</t>
-  </si>
-  <si>
-    <t>Reitera petición de informe dentro del plazo de 05 días</t>
-  </si>
-  <si>
-    <t>En Relación</t>
-  </si>
-  <si>
-    <t>Evacua Informe</t>
-  </si>
-  <si>
-    <t>RESERVADO</t>
-  </si>
-  <si>
-    <t>Ica Informa</t>
-  </si>
-  <si>
-    <t>Se declara admisible, 08 días. NHL ONI.</t>
-  </si>
-  <si>
-    <t>Admisibles</t>
-  </si>
-  <si>
-    <t>Deniega O.N.I.</t>
-  </si>
-  <si>
-    <t>Oni</t>
-  </si>
-  <si>
-    <t>Ev. Informe.</t>
-  </si>
-  <si>
-    <t>Téngase Presente lo informado por la recurrida</t>
-  </si>
-  <si>
-    <t>Dese Cuenta en Sala</t>
-  </si>
-  <si>
-    <t>Dese Cuenta</t>
-  </si>
-  <si>
-    <t>Ev. Traslado.</t>
-  </si>
-  <si>
-    <t>Pide informe cumplimiento de la ONI dentro de 05 días hábiles // Pide informe al tenor del recurso dentro de 05 días hábiles</t>
-  </si>
-  <si>
-    <t>Dese Cuenta en Sala de Turno</t>
-  </si>
-  <si>
-    <t>Ev. Informe. En relación</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -150,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -474,177 +420,149 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="113.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.7109375" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>27</v>
-      </c>
-      <c r="B17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>29</v>
-      </c>
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>30</v>
-      </c>
-      <c r="B20" t="s">
-        <v>16</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Título</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Etiqueta_Predicha</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Rechazada sin costas</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Rechazada</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Pide informe cumplimiento al fondo de la sentencia dentro de 08 días hábiles</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Ica Solicita Diligencia</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Dese cuenta</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Dese Cuenta</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Ev. Informe. En relación</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Evacua Informe</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Inicio tramitación</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Inicio Tramitación</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Agréguese Extraordinariamente a la tabla del 07 de febrero</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Agréguese A Tabla</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Pide informe cumplimiento de la sentencia de autos.</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Ica Solicita Diligencia</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Prescinde informe, en relación</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Prescinde</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Habiéndose concedido a la recurrida ampliación de plazo para informar, el que a la fecha se encuentra vencido, pídase cuenta del informe solicitado en autos, debiendo evacuarlo dentro de tercero día, bajo apercibimiento de prescindir del mismo</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Apercibe</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Dese Cuenta en Sala de Turno</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Dese Cuenta</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/predicciones.xlsx
+++ b/predicciones.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,120 +448,108 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Rechazada sin costas</t>
+          <t>Se declara admisible, 05 días. Dese cuenta ONI.</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Rechazada</t>
+          <t>Admisibles</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Pide informe cumplimiento al fondo de la sentencia dentro de 08 días hábiles</t>
+          <t>Pone en conc.inhabilidad</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ica Solicita Diligencia</t>
+          <t>Acumulación</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Dese cuenta</t>
+          <t>RESERVADO</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Dese Cuenta</t>
+          <t>Ica Informa</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Ev. Informe. En relación</t>
+          <t>Dese cuenta admisibilidad</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Evacua Informe</t>
+          <t>Dese Cuenta</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Inicio tramitación</t>
+          <t>Incompetencia</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Inicio Tramitación</t>
+          <t>Incompetencia</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Agréguese Extraordinariamente a la tabla del 07 de febrero</t>
+          <t>Concede Recurso, Interconexión</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Agréguese A Tabla</t>
+          <t>Concede Apelación</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Pide informe cumplimiento de la sentencia de autos.</t>
+          <t>Dese cuenta en sala la apelación</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Ica Solicita Diligencia</t>
+          <t>Dese Cuenta</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Prescinde informe, en relación</t>
+          <t>Ev. Informe. En relación.</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Prescinde</t>
+          <t>Evacua Informe</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Habiéndose concedido a la recurrida ampliación de plazo para informar, el que a la fecha se encuentra vencido, pídase cuenta del informe solicitado en autos, debiendo evacuarlo dentro de tercero día, bajo apercibimiento de prescindir del mismo</t>
+          <t>Pide FUN dentro el palzo de 03 días</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Apercibe</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Dese Cuenta en Sala de Turno</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Dese Cuenta</t>
+          <t>Ica Solicita Diligencia</t>
         </is>
       </c>
     </row>

--- a/predicciones.xlsx
+++ b/predicciones.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,108 +448,156 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Se declara admisible, 05 días. Dese cuenta ONI.</t>
+          <t>No ha lugar por extemporáneo la apelación de la recurrida</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Admisibles</t>
+          <t>Ica Solicita Diligencia</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Pone en conc.inhabilidad</t>
+          <t>Deniega O.N.I.</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Acumulación</t>
+          <t>Oni</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>RESERVADO</t>
+          <t>Ev. Informe.</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ica Informa</t>
+          <t>Evacua Informe</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Dese cuenta admisibilidad</t>
+          <t>Pide informar el domicilio contractual y el FUN actualizado del recurrente dentro de 05 días</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Dese Cuenta</t>
+          <t>Ica Solicita Diligencia</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Incompetencia</t>
+          <t>Pide cuenta del informe a la recurrida</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Incompetencia</t>
+          <t>Ica Solicita Diligencia</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Concede Recurso, Interconexión</t>
+          <t>Estese al mérito de autos</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Concede Apelación</t>
+          <t>Ica Informa</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Dese cuenta en sala la apelación</t>
+          <t>Inadmisible</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Dese Cuenta</t>
+          <t>Inadmisible/Omite</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Ev. Informe. En relación.</t>
+          <t>Concede Recurso, Interconexión</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Evacua Informe</t>
+          <t>Concede Apelación</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Pide FUN dentro el palzo de 03 días</t>
+          <t>Ev. Informe. En relación.</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Ica Solicita Diligencia</t>
+          <t>Evacua Informe</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Comunica N° 14</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Ica Informa</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Dese Cuenta en Sala</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Dese Cuenta</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Concede ampliación de plazo por el término de 05 días</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Ica Amplia Plazo</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Se declara admisible, 08 días. Concede ONI.</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Admisibles</t>
         </is>
       </c>
     </row>

--- a/predicciones.xlsx
+++ b/predicciones.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,156 +448,168 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>No ha lugar por extemporáneo la apelación de la recurrida</t>
+          <t>Ev. Informe. En relación</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ica Solicita Diligencia</t>
+          <t>Evacua Informe</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Deniega O.N.I.</t>
+          <t>Inadmisible</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Oni</t>
+          <t>Incompetencia</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Ev. Informe.</t>
+          <t>Traslado</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Evacua Informe</t>
+          <t>Ica Informa</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Pide informar el domicilio contractual y el FUN actualizado del recurrente dentro de 05 días</t>
+          <t>Agréguese Extraordinariamente a la tabla del 03 de marzo</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ica Solicita Diligencia</t>
+          <t>Agréguese A Tabla</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Pide cuenta del informe a la recurrida</t>
+          <t>Ev. Informe. Pase al sr. presidente</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ica Solicita Diligencia</t>
+          <t>Evacua Informe</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Estese al mérito de autos</t>
+          <t>Se declara admisible, 05 días hábiles. Concede ONI.</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Ica Informa</t>
+          <t>Admisibles</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Inadmisible</t>
+          <t>Nota de Acuerdo: redacción Margarita Sanhueza</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Inadmisible/Omite</t>
+          <t>Acuerdo</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Concede Recurso, Interconexión</t>
+          <t>Concede ampliación de plazo por el término de 05 días</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Concede Apelación</t>
+          <t>Ica Amplia Plazo</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Ev. Informe. En relación.</t>
+          <t>Concede ampliación de plazo por el término de 08 días</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Evacua Informe</t>
+          <t>Ica Amplia Plazo</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Comunica N° 14</t>
+          <t>Pide informe cumplimiento de sentencia a la recurrida</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Ica Informa</t>
+          <t>Ica Solicita Diligencia</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Dese Cuenta en Sala</t>
+          <t>Concede ampliación de Plazo por el término de 05 días</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Dese Cuenta</t>
+          <t>Ica Amplia Plazo</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Concede ampliación de plazo por el término de 05 días</t>
+          <t>No ha lugar ocúrrase ante quien corresponda</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Ica Amplia Plazo</t>
+          <t>Ica Informa</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Se declara admisible, 08 días. Concede ONI.</t>
+          <t>Se declara admisible, 10 días. NHL ONI.</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
           <t>Admisibles</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Concede recurso, interconexión</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Concede Apelación</t>
         </is>
       </c>
     </row>

--- a/predicciones.xlsx
+++ b/predicciones.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,7 +448,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Ev. Informe. En relación</t>
+          <t>Ev. Informe. En Relación</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -460,31 +460,31 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Inadmisible</t>
+          <t>Estese al merito de autos</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Incompetencia</t>
+          <t>Ica Informa</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Traslado</t>
+          <t>Incompetencia</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ica Informa</t>
+          <t>Incompetencia</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Agréguese Extraordinariamente a la tabla del 03 de marzo</t>
+          <t>Agréguese Extraordinariamente a la tabla del 05 de marzo</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -496,19 +496,19 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Ev. Informe. Pase al sr. presidente</t>
+          <t>Acogida sin costas</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Evacua Informe</t>
+          <t>Acoge</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Se declara admisible, 05 días hábiles. Concede ONI.</t>
+          <t>Acepta competencia: Se declara admisible, 10 días. NHL ONI.</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -520,96 +520,168 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Nota de Acuerdo: redacción Margarita Sanhueza</t>
+          <t>Dese Cuenta en Sala de Turno</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Acuerdo</t>
+          <t>Dese Cuenta</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Concede ampliación de plazo por el término de 05 días</t>
+          <t>Agréguese Extraordinariamente</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Ica Amplia Plazo</t>
+          <t>Agréguese A Tabla</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Concede ampliación de plazo por el término de 08 días</t>
+          <t>Al escrito tengase presente: Previo a resolver acompañese el documento ofrecido dentro del plazo de 05 días de tener por no presentado.</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Ica Amplia Plazo</t>
+          <t>Ica Solicita Diligencia</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Pide informe cumplimiento de sentencia a la recurrida</t>
+          <t>Inicio tramitación</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Ica Solicita Diligencia</t>
+          <t>Inicio Tramitación</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Concede ampliación de Plazo por el término de 05 días</t>
+          <t>Nota de Acuerdo: Redacción Valentina Salvo Oviedo</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Ica Amplia Plazo</t>
+          <t>Acuerdo</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>No ha lugar ocúrrase ante quien corresponda</t>
+          <t>Téngase Presente</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Ica Informa</t>
+          <t>Téngase Presente</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Se declara admisible, 10 días. NHL ONI.</t>
+          <t>Dese cuenta admisibilidad</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Admisibles</t>
+          <t>Dese Cuenta</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Concede recurso, interconexión</t>
+          <t>Agréguese Extraordinariamente a la tabla del 07 de marzo</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Concede Apelación</t>
+          <t>Agréguese A Tabla</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Al folio 18: Téngase presente y como se pide.</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Téngase Presente</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Al folio 19: NHL. Al segundo otrosí, como se pide.</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Nhl</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Téngase por reacusado</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Evacua Informe</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Agréguese Extraordinariamente a la tabla del 04 de marzo</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Agréguese A Tabla</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Téngase presente y por cumplido lo ordenado. En Relación</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Evacua Informe</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Rechazada sin costas</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Rechazada</t>
         </is>
       </c>
     </row>

--- a/predicciones.xlsx
+++ b/predicciones.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,240 +448,128 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Ev. Informe. En Relación</t>
+          <t>Rechazada sin costas</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Rechazada</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr"/>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>Evacua Informe</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Estese al merito de autos</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Ica Informa</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Incompetencia</t>
+          <t>Dese Cuenta Admisibilidad</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Incompetencia</t>
+          <t>Dese Cuenta</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Agréguese Extraordinariamente a la tabla del 05 de marzo</t>
+          <t>Ev. Informe. En relación</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Agréguese A Tabla</t>
+          <t>Evacua Informe</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Acogida sin costas</t>
+          <t>Inadmisible</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Acoge</t>
+          <t>Incompetencia</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Acepta competencia: Se declara admisible, 10 días. NHL ONI.</t>
+          <t>Agréguese Extraordinariamente a la tabla del 05 de marzo</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Admisibles</t>
+          <t>Agréguese A Tabla</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Dese Cuenta en Sala de Turno</t>
+          <t>Se Pronuncia Incompetencia</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Dese Cuenta</t>
+          <t>Incompetencia</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Agréguese Extraordinariamente</t>
+          <t>Atendiendo al tiempo transcurrido y que la recurrida no ha evacuado el informe dese cuenta para los fines que diere lugar</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Agréguese A Tabla</t>
+          <t>Ica Solicita Diligencia</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Al escrito tengase presente: Previo a resolver acompañese el documento ofrecido dentro del plazo de 05 días de tener por no presentado.</t>
+          <t>Concede ampliación de plazo por el término de 08 días hábiles</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Ica Solicita Diligencia</t>
+          <t>Ica Amplia Plazo</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Inicio tramitación</t>
+          <t>Se declara admisible, 10 días. Concede ONI.</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Inicio Tramitación</t>
+          <t>Admisibles</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Nota de Acuerdo: Redacción Valentina Salvo Oviedo</t>
+          <t>Se declara admisible 08 días. Concede ONI.</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Acuerdo</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Téngase Presente</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Téngase Presente</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Dese cuenta admisibilidad</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Dese Cuenta</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Agréguese Extraordinariamente a la tabla del 07 de marzo</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Agréguese A Tabla</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Al folio 18: Téngase presente y como se pide.</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Téngase Presente</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Al folio 19: NHL. Al segundo otrosí, como se pide.</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Nhl</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Téngase por reacusado</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Evacua Informe</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Agréguese Extraordinariamente a la tabla del 04 de marzo</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Agréguese A Tabla</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Téngase presente y por cumplido lo ordenado. En Relación</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Evacua Informe</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Rechazada sin costas</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Rechazada</t>
+          <t>Admisibles</t>
         </is>
       </c>
     </row>

--- a/predicciones.xlsx
+++ b/predicciones.xlsx
@@ -446,70 +446,70 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Rechazada sin costas</t>
-        </is>
-      </c>
+      <c r="A2" t="inlineStr"/>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Rechazada</t>
+          <t>Ica Informa</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr"/>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Se declara admisible 08 días. Concede ONI.</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Evacua Informe</t>
+          <t>Admisibles</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Dese Cuenta Admisibilidad</t>
+          <t>Agréguese Extraordinariamente a la tabla del 05 de marzo</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Dese Cuenta</t>
+          <t>Agréguese A Tabla</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Ev. Informe. En relación</t>
+          <t>Rechazada sin costas</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Evacua Informe</t>
+          <t>Rechazada</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Inadmisible</t>
+          <t>Ev. Informe. En relación</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Incompetencia</t>
+          <t>Evacua Informe</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Agréguese Extraordinariamente a la tabla del 05 de marzo</t>
+          <t>Inadmisible</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Agréguese A Tabla</t>
+          <t>Inadmisible/Omite</t>
         </is>
       </c>
     </row>
@@ -528,48 +528,48 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Atendiendo al tiempo transcurrido y que la recurrida no ha evacuado el informe dese cuenta para los fines que diere lugar</t>
+          <t>Dese Cuenta Admisibilidad</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Ica Solicita Diligencia</t>
+          <t>Dese Cuenta</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Concede ampliación de plazo por el término de 08 días hábiles</t>
+          <t>Se declara admisible, 10 días. Concede ONI.</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Ica Amplia Plazo</t>
+          <t>Admisibles</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Se declara admisible, 10 días. Concede ONI.</t>
+          <t>Concede ampliación de plazo por el término de 08 días hábiles</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Admisibles</t>
+          <t>Ica Amplia Plazo</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Se declara admisible 08 días. Concede ONI.</t>
+          <t>Atendiendo al tiempo transcurrido y que la recurrida no ha evacuado el informe dese cuenta para los fines que diere lugar</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Admisibles</t>
+          <t>Evacua Informe</t>
         </is>
       </c>
     </row>
